--- a/Construction productivity dataset.xlsx
+++ b/Construction productivity dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEMPORARY\MOE 2020\NTUST\Prof MYC\MATLAB\CIC DESKTOP\OMA+SVM+LSSVM+BPNN_2_PROD_10FOLD_norm _FS_Benchmark\Normalization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEMPORARY\MOE 2020\NTUST\Prof MYC\SVM\My THESIS\Manuscript 1_MBM\MBM\4. AI\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3295430-0B99-4CEB-895A-3C8C80012ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775759B-6E57-4A15-B439-4D84A16C8ACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="405" windowWidth="29040" windowHeight="15195" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>X1</t>
   </si>
@@ -157,12 +157,36 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>m2/labor-hour</t>
+  </si>
+  <si>
+    <t>˚C</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +222,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -240,10 +270,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -528,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10277,176 +10313,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A629D7-0606-44DC-BCD5-2DD806D8740B}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="5"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
     </row>
